--- a/SQL/正在执行的流程任务/正在执行的流程任务.xlsx
+++ b/SQL/正在执行的流程任务/正在执行的流程任务.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,21 +68,6 @@
     <t>融资额</t>
   </si>
   <si>
-    <t>赵广八</t>
-  </si>
-  <si>
-    <t>行政人事部</t>
-  </si>
-  <si>
-    <t>出差申请流程.10040084</t>
-  </si>
-  <si>
-    <t>直属领导</t>
-  </si>
-  <si>
-    <t>乔卫兵</t>
-  </si>
-  <si>
     <t>0天</t>
   </si>
   <si>
@@ -101,36 +86,15 @@
     <t>唐莉</t>
   </si>
   <si>
-    <t>4天</t>
-  </si>
-  <si>
     <t>票据申请审批流程.10030115</t>
   </si>
   <si>
-    <t>票据申请审批流程.10030128</t>
-  </si>
-  <si>
     <t>票据申请审批流程.10030072</t>
   </si>
   <si>
     <t>票据申请审批流程.10030078</t>
   </si>
   <si>
-    <t>张琳琳</t>
-  </si>
-  <si>
-    <t>内部请示单审批流程.10020539</t>
-  </si>
-  <si>
-    <t>行政人事部审批</t>
-  </si>
-  <si>
-    <t>刘琼</t>
-  </si>
-  <si>
-    <t>5天</t>
-  </si>
-  <si>
     <t>宫平</t>
   </si>
   <si>
@@ -143,42 +107,12 @@
     <t>刘芳</t>
   </si>
   <si>
-    <t>6天</t>
-  </si>
-  <si>
-    <t>李晓朋</t>
-  </si>
-  <si>
-    <t>风险管理部</t>
-  </si>
-  <si>
-    <t>请假申请流程.10010425</t>
-  </si>
-  <si>
-    <t>朱彩霞</t>
-  </si>
-  <si>
-    <t>17天</t>
-  </si>
-  <si>
     <t>刘舒</t>
   </si>
   <si>
     <t>华南业务部</t>
   </si>
   <si>
-    <t>项目立项审批流程.10010233</t>
-  </si>
-  <si>
-    <t>评审秘书1</t>
-  </si>
-  <si>
-    <t>27天</t>
-  </si>
-  <si>
-    <t>力帆骏马二期</t>
-  </si>
-  <si>
     <t>云南力帆骏马车辆有限公司</t>
   </si>
   <si>
@@ -188,9 +122,6 @@
     <t>发起人</t>
   </si>
   <si>
-    <t>28天</t>
-  </si>
-  <si>
     <t>云南力帆二期</t>
   </si>
   <si>
@@ -206,31 +137,109 @@
     <t>发起人搜集齐全资料尽调并攥写尽调报告</t>
   </si>
   <si>
-    <t>50天</t>
-  </si>
-  <si>
     <t>同煤医院</t>
   </si>
   <si>
     <t>大同煤矿集团有限责任公司总医院</t>
   </si>
   <si>
-    <t>李红霞</t>
-  </si>
-  <si>
     <t>保理部</t>
   </si>
   <si>
-    <t>用章申请流程.9840005</t>
-  </si>
-  <si>
-    <t>56天</t>
+    <t>7天</t>
+  </si>
+  <si>
+    <t>王雷</t>
+  </si>
+  <si>
+    <t>票据申请审批流程.10040256</t>
+  </si>
+  <si>
+    <t>王亮</t>
+  </si>
+  <si>
+    <t>项目立项审批流程.10040290</t>
+  </si>
+  <si>
+    <t>1天</t>
+  </si>
+  <si>
+    <t>开滦蔚州</t>
+  </si>
+  <si>
+    <t>开滦（集团）蔚州矿业有限责任公司</t>
+  </si>
+  <si>
+    <t>高卓</t>
+  </si>
+  <si>
+    <t>河南分公司</t>
+  </si>
+  <si>
+    <t>客户保证金期末退回申请.10050179</t>
+  </si>
+  <si>
+    <t>部门经理审批</t>
+  </si>
+  <si>
+    <t>16天</t>
+  </si>
+  <si>
+    <t>38天</t>
+  </si>
+  <si>
+    <t>票据申请审批流程.10050007</t>
+  </si>
+  <si>
+    <t>票据申请审批流程.10050152</t>
+  </si>
+  <si>
+    <t>14天</t>
+  </si>
+  <si>
+    <t>票据申请审批流程.10050237</t>
+  </si>
+  <si>
+    <t>放款审批流程.10050191</t>
+  </si>
+  <si>
+    <t>潞安集团二期</t>
+  </si>
+  <si>
+    <t>山西潞安矿业（集团）有限责任公司</t>
+  </si>
+  <si>
+    <t>李华伟</t>
+  </si>
+  <si>
+    <t>上海分公司</t>
+  </si>
+  <si>
+    <t>项目立项审批流程.10050019</t>
+  </si>
+  <si>
+    <t>分管领导1</t>
+  </si>
+  <si>
+    <t>有色四期</t>
+  </si>
+  <si>
+    <t>陕西有色光电科技有限公司</t>
+  </si>
+  <si>
+    <t>8天</t>
+  </si>
+  <si>
+    <t>60天</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,6 +327,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -626,13 +653,13 @@
     <col min="1" max="1" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="40.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -661,19 +688,19 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -691,31 +718,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3">
+        <v>42678.431250000001</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10013</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3">
+        <v>42678.431250000001</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3">
-        <v>42668.446527777778</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10001</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3">
-        <v>42668.446527777778</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -723,31 +750,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
-        <v>42664.698611111111</v>
+        <v>42662.674305555556</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2">
-        <v>10008</v>
+        <v>10024</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3">
-        <v>42664.698611111111</v>
+        <v>42662.674305555556</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -755,31 +782,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3">
-        <v>42664.697916666664</v>
+        <v>42640.643055555556</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2">
-        <v>10008</v>
+        <v>10032</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" s="3">
-        <v>42664.697916666664</v>
+        <v>42640.643055555556</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="9">
+        <v>201609270824</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1200000000</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -787,323 +826,310 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3">
-        <v>42664.697916666664</v>
+        <v>42671.447916666664</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2">
         <v>10008</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3">
-        <v>42664.697916666664</v>
+        <v>42671.447916666664</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
-        <v>42664.697222222225</v>
+        <v>42678.400000000001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2">
         <v>10008</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I6" s="3">
-        <v>42664.697222222225</v>
+        <v>42678.400000000001</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3">
-        <v>42664.696527777778</v>
+        <v>42678.431944444441</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2">
         <v>10008</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I7" s="3">
-        <v>42664.696527777778</v>
+        <v>42678.431944444441</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
-        <v>42663.40625</v>
+        <v>42664.697916666664</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2">
-        <v>10018</v>
+        <v>10008</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3">
-        <v>42663.40625</v>
+        <v>42664.697916666664</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3">
+        <v>42664.697222222225</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3">
-        <v>42662.674305555556</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2">
-        <v>10024</v>
+        <v>10008</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I9" s="3">
-        <v>42662.674305555556</v>
+        <v>42664.697222222225</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3">
-        <v>42651.396527777775</v>
+        <v>42664.696527777778</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2">
-        <v>10014</v>
+        <v>10008</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I10" s="3">
-        <v>42651.396527777775</v>
+        <v>42664.696527777778</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
-        <v>42641.638888888891</v>
+        <v>42664.698611111111</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2">
-        <v>10024</v>
+        <v>10008</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I11" s="3">
-        <v>42641.638888888891</v>
+        <v>42664.698611111111</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="2">
-        <v>201609280825</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="4">
-        <v>1200000000</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3">
-        <v>42640.643055555556</v>
+        <v>42678.459722222222</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2">
-        <v>10032</v>
+        <v>10002</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I12" s="3">
-        <v>42640.643055555556</v>
+        <v>42678.459722222222</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="2">
-        <v>201609270824</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="4">
-        <v>1200000000</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3">
-        <v>42618.477777777778</v>
+        <v>42678.43472222222</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10002</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="3">
+        <v>42678.43472222222</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="2">
-        <v>10006</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="3">
-        <v>42618.477777777778</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="L13" s="9">
+        <v>201609220821</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="2">
-        <v>201608300810</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>63</v>
+      <c r="N13" s="2">
+        <v>438201</v>
       </c>
       <c r="O13" s="4">
-        <v>250000000</v>
+        <v>300000000</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1111,36 +1137,137 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3">
+        <v>42677.783333333333</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="3">
-        <v>42612.554166666669</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2">
+        <v>10002</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3">
+        <v>42677.783333333333</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="2">
-        <v>10014</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="L14" s="9">
+        <v>201610210832</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="4">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="3">
-        <v>42612.554166666669</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>67</v>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3">
+        <v>42670.671527777777</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10035</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="3">
+        <v>42670.671527777777</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="9">
+        <v>201610270833</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="4">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3">
+        <v>42618.477777777778</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10006</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3">
+        <v>42618.477777777778</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="9">
+        <v>201608300810</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="4">
+        <v>250000000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
